--- a/src/main/resources/com/relative/brecreditosnuevos/matrices/Plazos.xlsx
+++ b/src/main/resources/com/relative/brecreditosnuevos/matrices/Plazos.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\PROYECTOS\QUSKI\BRE\MATRICES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MBF\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6BFFCFE-F5E1-4945-B3CA-C434AC6A3633}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86579611-78A2-48BD-BAAC-92DB7AB4CA78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$8:$W$81</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -27,46 +30,49 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>r06xd</author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{8BB64034-0F01-4C84-93E0-DB8543FA67A7}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Se declara una variable que contendra un listado de las opciones de renovacion que tiene el cliente.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{FA39931B-B19B-4FA2-9889-0988338B56FF}">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Se declara una variable que contendra un listado de las opciones de renovacion que tiene el cliente.</t>
         </r>
       </text>
     </comment>
-    <comment ref="W8" authorId="0" shapeId="0" xr:uid="{50A30AD3-2805-4ECD-9D8A-D9B3CEDF9295}">
+    <comment ref="W8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Esta accion no lleva valor del parametro y debe ir al final de las demas acciones ya que realiza cada accion anterior por cada opcion de renovacion del cliente , cada una de estas opciones de renovacion las llena en una lista de opciones de renovacion para al final ser presentadas al cliente.</t>
         </r>
@@ -77,103 +83,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="73">
   <si>
     <t>RuleSet</t>
   </si>
   <si>
+    <t>Plazos</t>
+  </si>
+  <si>
     <t>Import</t>
   </si>
   <si>
+    <t>com.relative.brecreditosnuevos.objetosnegocio.Cliente,com.relative.brecreditosnuevos.objetosnegocio.Opcion,com.relative.brecreditosnuevos.objetosnegocio.OpcionesRenovacion,com.relative.brecreditosnuevos.objetosnegocio.VariablesNegocio</t>
+  </si>
+  <si>
+    <t>RuleTable Plazos</t>
+  </si>
+  <si>
+    <t>RULEFLOW-GROUP</t>
+  </si>
+  <si>
     <t>CONDITION</t>
   </si>
   <si>
     <t>ACTION</t>
   </si>
   <si>
-    <t>RULEFLOW-GROUP</t>
-  </si>
-  <si>
-    <t>CARTERA</t>
-  </si>
-  <si>
-    <t>PLAZO OFERTA</t>
-  </si>
-  <si>
-    <t>GRUPO REGLAS</t>
-  </si>
-  <si>
-    <t>Plazos</t>
-  </si>
-  <si>
-    <t>GrupoPlazos</t>
-  </si>
-  <si>
-    <t>RuleTable Plazos</t>
-  </si>
-  <si>
-    <t>PERIODO PLAZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORMA PAGO CAPITAL </t>
-  </si>
-  <si>
-    <t>FORMA PAGO CUSTODIA</t>
-  </si>
-  <si>
-    <t>FORMA PAGO FIDEICOMISO</t>
-  </si>
-  <si>
-    <t>FORMA PAGO INTERES</t>
-  </si>
-  <si>
-    <t>FORMA PAGO MORA</t>
-  </si>
-  <si>
-    <t>FORMA PAGO GASTO COBRANZA</t>
-  </si>
-  <si>
-    <t>FORMA PAGO SEGURO</t>
-  </si>
-  <si>
-    <t>FORMA PAGO TASADOR</t>
-  </si>
-  <si>
-    <t>FORMA PAGO TRANSPORTE</t>
-  </si>
-  <si>
-    <t>FORMA PAGO VALORACION</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PERIODICIDAD PLAZO</t>
-  </si>
-  <si>
-    <t>M</t>
+    <t>cliente:Cliente</t>
+  </si>
+  <si>
+    <t>opcionRenovacion:OpcionesRenovacion</t>
+  </si>
+  <si>
+    <t>variablesNegocio:VariablesNegocio</t>
+  </si>
+  <si>
+    <t>cliente.getCartera()=="$param"</t>
+  </si>
+  <si>
+    <t>$param</t>
+  </si>
+  <si>
+    <t>variablesNegocio.getTotalGarantia()&gt;=$param</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opcion opcion=new Opcion();opcion.setPlazo(Integer.valueOf($param));
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opcion.setPeriodoPlazo("$param");
+</t>
   </si>
   <si>
     <t xml:space="preserve">opcion.setPeriodicidadPlazo("$param");
 </t>
   </si>
   <si>
-    <t xml:space="preserve">opcion.setPeriodoPlazo("$param");
-</t>
-  </si>
-  <si>
-    <t>VALOR DE OPCIONES DE PLAZOS</t>
-  </si>
-  <si>
-    <t>cliente.getCartera()=="$param"</t>
-  </si>
-  <si>
-    <t>cliente:Cliente</t>
-  </si>
-  <si>
     <t xml:space="preserve">opcion.setFormaPagoCapital("$param");
 </t>
   </si>
@@ -194,14 +159,14 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">opcion.setFormaPagoGastoCobranza("$param");
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">opcion.setFormaPagoSeguro("$param");
 </t>
   </si>
   <si>
-    <t xml:space="preserve">opcion.setFormaPagoGastoCobranza("$param");
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">opcion.setFormaPagoTasador("$param");
 </t>
   </si>
@@ -210,44 +175,112 @@
 </t>
   </si>
   <si>
+    <t>opcion.setFormaPagoValoracion("$param");</t>
+  </si>
+  <si>
+    <t>opcion.setTIPO_OFERTA("$param");</t>
+  </si>
+  <si>
+    <t>opcion.setPORCENTAJE_FLUJO_PLANEADO(Integer.valueOf($param));</t>
+  </si>
+  <si>
+    <t>opcion.setDIVIDENDO_FLUJO_PLANEADO(Integer.valueOf($param));</t>
+  </si>
+  <si>
+    <t>opcion.setDIVIDENDOS_PRORRATEO_SERVICIOS_DIFERIDO("$param");</t>
+  </si>
+  <si>
+    <t>opcionRenovacion.getOpcion().add(opcion);</t>
+  </si>
+  <si>
+    <t>VALORES PARAMETRIZADOS</t>
+  </si>
+  <si>
+    <t>GRUPO REGLAS</t>
+  </si>
+  <si>
+    <t>CARTERA</t>
+  </si>
+  <si>
     <t>DECLARACION DE VARIABLE ADICIONAL</t>
   </si>
   <si>
-    <t>$param</t>
+    <t>PLAZO OFERTA</t>
+  </si>
+  <si>
+    <t>PERIODO PLAZO</t>
+  </si>
+  <si>
+    <t>PERIODICIDAD PLAZO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORMA PAGO CAPITAL </t>
+  </si>
+  <si>
+    <t>FORMA PAGO CUSTODIA</t>
+  </si>
+  <si>
+    <t>FORMA PAGO FIDEICOMISO</t>
+  </si>
+  <si>
+    <t>FORMA PAGO INTERES</t>
+  </si>
+  <si>
+    <t>FORMA PAGO MORA</t>
+  </si>
+  <si>
+    <t>FORMA PAGO GASTO COBRANZA</t>
+  </si>
+  <si>
+    <t>FORMA PAGO SEGURO</t>
+  </si>
+  <si>
+    <t>FORMA PAGO TASADOR</t>
+  </si>
+  <si>
+    <t>FORMA PAGO TRANSPORTE</t>
+  </si>
+  <si>
+    <t>FORMA PAGO VALORACION</t>
+  </si>
+  <si>
+    <t>TIPO OFERTA</t>
+  </si>
+  <si>
+    <t>PORCENTAJE FLUJO PLANEADO</t>
+  </si>
+  <si>
+    <t>DIVIDENDO FLUJO PLANEADO</t>
+  </si>
+  <si>
+    <t>DIVIDENDOS PRORRATEO SERVICIOS DIFERIDO</t>
+  </si>
+  <si>
+    <t>INGRESO DE OPCION</t>
+  </si>
+  <si>
+    <t>VALOR DE OPCIONES DE PLAZOS</t>
+  </si>
+  <si>
+    <t>GrupoPlazos</t>
+  </si>
+  <si>
+    <t>MO3</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>opcionRenovacion:OpcionesRenovacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opcion opcion=new Opcion();opcion.setPlazo(Integer.valueOf($param));
-</t>
-  </si>
-  <si>
-    <t>opcionRenovacion.getOpcion().add(opcion);</t>
-  </si>
-  <si>
-    <t>INGRESO DE OPCION</t>
-  </si>
-  <si>
-    <t>opcion.setFormaPagoValoracion("$param");</t>
-  </si>
-  <si>
-    <t>VALORES PARAMETRIZADOS</t>
-  </si>
-  <si>
-    <t>MO3</t>
-  </si>
-  <si>
-    <t>variablesNegocio:VariablesNegocio</t>
-  </si>
-  <si>
-    <t>variablesNegocio.getTotalGarantia()&gt;=$param</t>
-  </si>
-  <si>
-    <t>com.relative.brecreditosnuevos.objetosnegocio.Cliente,com.relative.brecreditosnuevos.objetosnegocio.Opcion,com.relative.brecreditosnuevos.objetosnegocio.OpcionesRenovacion,com.relative.brecreditosnuevos.objetosnegocio.VariablesNegocio</t>
+    <t>D</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>MO6</t>
@@ -256,37 +289,31 @@
     <t>F</t>
   </si>
   <si>
-    <t>TIPO OFERTA</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>PORCENTAJE FLUJO PLANEADO</t>
-  </si>
-  <si>
-    <t>opcion.setTIPO_OFERTA("$param");</t>
-  </si>
-  <si>
-    <t>DIVIDENDO FLUJO PLANEADO</t>
-  </si>
-  <si>
-    <t>DIVIDENDOS PRORRATEO SERVICIOS DIFERIDO</t>
-  </si>
-  <si>
-    <t>opcion.setDIVIDENDOS_PRORRATEO_SERVICIOS_DIFERIDO("$param");</t>
-  </si>
-  <si>
-    <t>opcion.setPORCENTAJE_FLUJO_PLANEADO(Integer.valueOf($param));</t>
-  </si>
-  <si>
-    <t>opcion.setDIVIDENDO_FLUJO_PLANEADO(Integer.valueOf($param));</t>
+    <t>E</t>
   </si>
   <si>
     <t>NUE</t>
   </si>
   <si>
-    <t>E</t>
+    <t>QSK</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>QSK2</t>
+  </si>
+  <si>
+    <t>MOR</t>
+  </si>
+  <si>
+    <t>MO2</t>
+  </si>
+  <si>
+    <t>MO5</t>
   </si>
 </sst>
 </file>
@@ -296,32 +323,33 @@
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -333,44 +361,44 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFF4B183"/>
+        <bgColor rgb="FFFFD966"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFA9D18E"/>
+        <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC99FF"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FAADC"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFF4B183"/>
       </patternFill>
     </fill>
   </fills>
@@ -384,29 +412,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -416,49 +444,49 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -468,10 +496,72 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <mruColors>
-      <color rgb="FFCC99FF"/>
-      <color rgb="FFFF9966"/>
-    </mruColors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFBFBFBF"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF8FAADC"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFA9D18E"/>
+      <rgbColor rgb="FFF4B183"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFD966"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -482,6 +572,158 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF4BF55-0595-4655-BA8E-9749D5709097}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10EE9D8-11F8-4F65-828B-CF754BE32334}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57BC1962-BFF3-43F5-A276-1D8FDA13F196}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -781,377 +1023,380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="23" width="20.7109375" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="23" width="20.7109375" customWidth="1"/>
+    <col min="24" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="V8" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="W8" s="8" t="s">
-        <v>46</v>
+      <c r="W8" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E9" s="14">
         <v>0</v>
@@ -1160,43 +1405,43 @@
         <v>2</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="R9" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="T9" s="15">
         <v>0</v>
@@ -1211,16 +1456,16 @@
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E10" s="14">
         <v>0</v>
@@ -1229,43 +1474,43 @@
         <v>3</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="R10" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="S10" s="15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="T10" s="15">
         <v>0</v>
@@ -1280,16 +1525,16 @@
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E11" s="14">
         <v>0</v>
@@ -1298,43 +1543,43 @@
         <v>4</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P11" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="R11" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="S11" s="15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="T11" s="15">
         <v>0</v>
@@ -1349,16 +1594,16 @@
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E12" s="14">
         <v>0</v>
@@ -1367,43 +1612,43 @@
         <v>6</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="R12" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="T12" s="15">
         <v>0</v>
@@ -1418,16 +1663,16 @@
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E13" s="14">
         <v>0</v>
@@ -1436,43 +1681,43 @@
         <v>9</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="R13" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="T13" s="15">
         <v>0</v>
@@ -1487,16 +1732,16 @@
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E14" s="14">
         <v>0</v>
@@ -1505,43 +1750,43 @@
         <v>12</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="T14" s="15">
         <v>0</v>
@@ -1556,16 +1801,16 @@
     </row>
     <row r="15" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E15" s="14">
         <v>1500</v>
@@ -1574,43 +1819,43 @@
         <v>18</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="R15" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="S15" s="15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="T15" s="15">
         <v>0</v>
@@ -1625,16 +1870,16 @@
     </row>
     <row r="16" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E16" s="14">
         <v>0</v>
@@ -1643,43 +1888,43 @@
         <v>7</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="R16" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="S16" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T16" s="15">
         <v>90</v>
@@ -1694,16 +1939,16 @@
     </row>
     <row r="17" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E17" s="14">
         <v>0</v>
@@ -1712,43 +1957,43 @@
         <v>11</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M17" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="R17" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="S17" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T17" s="15">
         <v>50</v>
@@ -1763,16 +2008,16 @@
     </row>
     <row r="18" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E18" s="14">
         <v>0</v>
@@ -1781,43 +2026,43 @@
         <v>2</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N18" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="R18" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="T18" s="15">
         <v>0</v>
@@ -1832,16 +2077,16 @@
     </row>
     <row r="19" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E19" s="14">
         <v>0</v>
@@ -1850,43 +2095,43 @@
         <v>3</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M19" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="R19" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="S19" s="15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="T19" s="15">
         <v>0</v>
@@ -1901,16 +2146,16 @@
     </row>
     <row r="20" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E20" s="14">
         <v>0</v>
@@ -1919,43 +2164,43 @@
         <v>4</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="R20" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="T20" s="15">
         <v>0</v>
@@ -1970,16 +2215,16 @@
     </row>
     <row r="21" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E21" s="14">
         <v>0</v>
@@ -1988,43 +2233,43 @@
         <v>6</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M21" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="S21" s="15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="T21" s="15">
         <v>0</v>
@@ -2039,16 +2284,16 @@
     </row>
     <row r="22" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E22" s="14">
         <v>0</v>
@@ -2057,43 +2302,43 @@
         <v>9</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Q22" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="T22" s="15">
         <v>0</v>
@@ -2108,16 +2353,16 @@
     </row>
     <row r="23" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E23" s="14">
         <v>0</v>
@@ -2126,43 +2371,43 @@
         <v>12</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Q23" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="R23" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="S23" s="15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="T23" s="15">
         <v>0</v>
@@ -2177,16 +2422,16 @@
     </row>
     <row r="24" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E24" s="14">
         <v>1500</v>
@@ -2195,43 +2440,43 @@
         <v>18</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Q24" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="R24" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="S24" s="15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="T24" s="15">
         <v>0</v>
@@ -2246,16 +2491,16 @@
     </row>
     <row r="25" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E25" s="14">
         <v>0</v>
@@ -2264,43 +2509,43 @@
         <v>7</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M25" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="R25" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="S25" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T25" s="15">
         <v>90</v>
@@ -2315,16 +2560,16 @@
     </row>
     <row r="26" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E26" s="14">
         <v>0</v>
@@ -2333,43 +2578,43 @@
         <v>11</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Q26" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="R26" s="15" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="S26" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="T26" s="15">
         <v>50</v>
@@ -2382,9 +2627,3805 @@
       </c>
       <c r="W26" s="15"/>
     </row>
+    <row r="27" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="14">
+        <v>0</v>
+      </c>
+      <c r="F27" s="15">
+        <v>2</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S27" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T27" s="15">
+        <v>0</v>
+      </c>
+      <c r="U27" s="15">
+        <v>999</v>
+      </c>
+      <c r="V27" s="15">
+        <v>0</v>
+      </c>
+      <c r="W27" s="15"/>
+    </row>
+    <row r="28" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="14">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15">
+        <v>3</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q28" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R28" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S28" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T28" s="15">
+        <v>0</v>
+      </c>
+      <c r="U28" s="15">
+        <v>999</v>
+      </c>
+      <c r="V28" s="15">
+        <v>0</v>
+      </c>
+      <c r="W28" s="15"/>
+    </row>
+    <row r="29" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="14">
+        <v>0</v>
+      </c>
+      <c r="F29" s="15">
+        <v>4</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O29" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R29" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S29" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T29" s="15">
+        <v>0</v>
+      </c>
+      <c r="U29" s="15">
+        <v>999</v>
+      </c>
+      <c r="V29" s="15">
+        <v>0</v>
+      </c>
+      <c r="W29" s="15"/>
+    </row>
+    <row r="30" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="14">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15">
+        <v>6</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q30" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R30" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S30" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T30" s="15">
+        <v>0</v>
+      </c>
+      <c r="U30" s="15">
+        <v>999</v>
+      </c>
+      <c r="V30" s="15">
+        <v>0</v>
+      </c>
+      <c r="W30" s="15"/>
+    </row>
+    <row r="31" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0</v>
+      </c>
+      <c r="F31" s="15">
+        <v>7</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S31" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T31" s="15">
+        <v>90</v>
+      </c>
+      <c r="U31" s="15">
+        <v>999</v>
+      </c>
+      <c r="V31" s="15">
+        <v>6</v>
+      </c>
+      <c r="W31" s="15"/>
+    </row>
+    <row r="32" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="14">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15">
+        <v>9</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S32" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T32" s="15">
+        <v>0</v>
+      </c>
+      <c r="U32" s="15">
+        <v>999</v>
+      </c>
+      <c r="V32" s="15">
+        <v>0</v>
+      </c>
+      <c r="W32" s="15"/>
+    </row>
+    <row r="33" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="14">
+        <v>0</v>
+      </c>
+      <c r="F33" s="15">
+        <v>11</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S33" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T33" s="15">
+        <v>50</v>
+      </c>
+      <c r="U33" s="15">
+        <v>999</v>
+      </c>
+      <c r="V33" s="15">
+        <v>0</v>
+      </c>
+      <c r="W33" s="15"/>
+    </row>
+    <row r="34" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="14">
+        <v>0</v>
+      </c>
+      <c r="F34" s="15">
+        <v>12</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O34" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q34" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R34" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S34" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T34" s="15">
+        <v>0</v>
+      </c>
+      <c r="U34" s="15">
+        <v>999</v>
+      </c>
+      <c r="V34" s="15">
+        <v>0</v>
+      </c>
+      <c r="W34" s="15"/>
+    </row>
+    <row r="35" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="14">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15">
+        <v>13</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M35" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S35" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T35" s="15">
+        <v>75</v>
+      </c>
+      <c r="U35" s="15">
+        <v>999</v>
+      </c>
+      <c r="V35" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="W35" s="15"/>
+    </row>
+    <row r="36" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="14">
+        <v>0</v>
+      </c>
+      <c r="F36" s="15">
+        <v>13</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N36" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O36" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q36" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R36" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S36" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T36" s="15">
+        <v>25</v>
+      </c>
+      <c r="U36" s="15">
+        <v>999</v>
+      </c>
+      <c r="V36" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="W36" s="15"/>
+    </row>
+    <row r="37" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="14">
+        <v>0</v>
+      </c>
+      <c r="F37" s="15">
+        <v>18</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M37" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S37" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T37" s="15">
+        <v>0</v>
+      </c>
+      <c r="U37" s="15">
+        <v>999</v>
+      </c>
+      <c r="V37" s="15">
+        <v>0</v>
+      </c>
+      <c r="W37" s="15"/>
+    </row>
+    <row r="38" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="14">
+        <v>0</v>
+      </c>
+      <c r="F38" s="15">
+        <v>2</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M38" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N38" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O38" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q38" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R38" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S38" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T38" s="15">
+        <v>0</v>
+      </c>
+      <c r="U38" s="15">
+        <v>999</v>
+      </c>
+      <c r="V38" s="15">
+        <v>0</v>
+      </c>
+      <c r="W38" s="15"/>
+    </row>
+    <row r="39" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="14">
+        <v>0</v>
+      </c>
+      <c r="F39" s="15">
+        <v>3</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S39" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T39" s="15">
+        <v>0</v>
+      </c>
+      <c r="U39" s="15">
+        <v>999</v>
+      </c>
+      <c r="V39" s="15">
+        <v>0</v>
+      </c>
+      <c r="W39" s="15"/>
+    </row>
+    <row r="40" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="14">
+        <v>0</v>
+      </c>
+      <c r="F40" s="15">
+        <v>4</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N40" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O40" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q40" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R40" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S40" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T40" s="15">
+        <v>0</v>
+      </c>
+      <c r="U40" s="15">
+        <v>999</v>
+      </c>
+      <c r="V40" s="15">
+        <v>0</v>
+      </c>
+      <c r="W40" s="15"/>
+    </row>
+    <row r="41" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="14">
+        <v>0</v>
+      </c>
+      <c r="F41" s="15">
+        <v>6</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M41" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N41" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O41" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q41" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R41" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S41" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T41" s="15">
+        <v>0</v>
+      </c>
+      <c r="U41" s="15">
+        <v>999</v>
+      </c>
+      <c r="V41" s="15">
+        <v>0</v>
+      </c>
+      <c r="W41" s="15"/>
+    </row>
+    <row r="42" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="14">
+        <v>0</v>
+      </c>
+      <c r="F42" s="15">
+        <v>7</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M42" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N42" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O42" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q42" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R42" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S42" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T42" s="15">
+        <v>90</v>
+      </c>
+      <c r="U42" s="15">
+        <v>999</v>
+      </c>
+      <c r="V42" s="15">
+        <v>6</v>
+      </c>
+      <c r="W42" s="15"/>
+    </row>
+    <row r="43" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0</v>
+      </c>
+      <c r="F43" s="15">
+        <v>9</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L43" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M43" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O43" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q43" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R43" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S43" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T43" s="15">
+        <v>0</v>
+      </c>
+      <c r="U43" s="15">
+        <v>999</v>
+      </c>
+      <c r="V43" s="15">
+        <v>0</v>
+      </c>
+      <c r="W43" s="15"/>
+    </row>
+    <row r="44" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="14">
+        <v>0</v>
+      </c>
+      <c r="F44" s="15">
+        <v>11</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M44" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O44" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q44" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R44" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S44" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T44" s="15">
+        <v>50</v>
+      </c>
+      <c r="U44" s="15">
+        <v>999</v>
+      </c>
+      <c r="V44" s="15">
+        <v>0</v>
+      </c>
+      <c r="W44" s="15"/>
+    </row>
+    <row r="45" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="14">
+        <v>0</v>
+      </c>
+      <c r="F45" s="15">
+        <v>12</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M45" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O45" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R45" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S45" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T45" s="15">
+        <v>0</v>
+      </c>
+      <c r="U45" s="15">
+        <v>999</v>
+      </c>
+      <c r="V45" s="15">
+        <v>0</v>
+      </c>
+      <c r="W45" s="15"/>
+    </row>
+    <row r="46" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="14">
+        <v>0</v>
+      </c>
+      <c r="F46" s="15">
+        <v>13</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L46" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M46" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N46" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O46" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q46" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R46" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S46" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T46" s="15">
+        <v>75</v>
+      </c>
+      <c r="U46" s="15">
+        <v>999</v>
+      </c>
+      <c r="V46" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="W46" s="15"/>
+    </row>
+    <row r="47" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="14">
+        <v>0</v>
+      </c>
+      <c r="F47" s="15">
+        <v>13</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L47" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M47" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N47" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O47" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q47" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R47" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S47" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T47" s="15">
+        <v>25</v>
+      </c>
+      <c r="U47" s="15">
+        <v>999</v>
+      </c>
+      <c r="V47" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="W47" s="15"/>
+    </row>
+    <row r="48" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="14">
+        <v>0</v>
+      </c>
+      <c r="F48" s="15">
+        <v>18</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M48" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O48" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P48" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q48" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R48" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S48" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T48" s="15">
+        <v>0</v>
+      </c>
+      <c r="U48" s="15">
+        <v>999</v>
+      </c>
+      <c r="V48" s="15">
+        <v>0</v>
+      </c>
+      <c r="W48" s="15"/>
+    </row>
+    <row r="49" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="14">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15">
+        <v>2</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I49" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N49" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O49" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q49" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R49" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S49" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T49" s="15">
+        <v>0</v>
+      </c>
+      <c r="U49" s="15">
+        <v>999</v>
+      </c>
+      <c r="V49" s="15">
+        <v>0</v>
+      </c>
+      <c r="W49" s="15"/>
+    </row>
+    <row r="50" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="14">
+        <v>0</v>
+      </c>
+      <c r="F50" s="15">
+        <v>3</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I50" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L50" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M50" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N50" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O50" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q50" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R50" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S50" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T50" s="15">
+        <v>0</v>
+      </c>
+      <c r="U50" s="15">
+        <v>999</v>
+      </c>
+      <c r="V50" s="15">
+        <v>0</v>
+      </c>
+      <c r="W50" s="15"/>
+    </row>
+    <row r="51" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="14">
+        <v>0</v>
+      </c>
+      <c r="F51" s="15">
+        <v>4</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N51" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O51" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q51" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R51" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S51" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T51" s="15">
+        <v>0</v>
+      </c>
+      <c r="U51" s="15">
+        <v>999</v>
+      </c>
+      <c r="V51" s="15">
+        <v>0</v>
+      </c>
+      <c r="W51" s="15"/>
+    </row>
+    <row r="52" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="14">
+        <v>0</v>
+      </c>
+      <c r="F52" s="15">
+        <v>6</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I52" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L52" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M52" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N52" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O52" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q52" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R52" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S52" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T52" s="15">
+        <v>0</v>
+      </c>
+      <c r="U52" s="15">
+        <v>999</v>
+      </c>
+      <c r="V52" s="15">
+        <v>0</v>
+      </c>
+      <c r="W52" s="15"/>
+    </row>
+    <row r="53" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" s="14">
+        <v>0</v>
+      </c>
+      <c r="F53" s="15">
+        <v>7</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J53" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M53" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N53" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O53" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q53" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R53" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S53" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T53" s="15">
+        <v>90</v>
+      </c>
+      <c r="U53" s="15">
+        <v>999</v>
+      </c>
+      <c r="V53" s="15">
+        <v>6</v>
+      </c>
+      <c r="W53" s="15"/>
+    </row>
+    <row r="54" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="14">
+        <v>0</v>
+      </c>
+      <c r="F54" s="15">
+        <v>9</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L54" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M54" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N54" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O54" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q54" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R54" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S54" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T54" s="15">
+        <v>0</v>
+      </c>
+      <c r="U54" s="15">
+        <v>999</v>
+      </c>
+      <c r="V54" s="15">
+        <v>0</v>
+      </c>
+      <c r="W54" s="15"/>
+    </row>
+    <row r="55" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" s="14">
+        <v>0</v>
+      </c>
+      <c r="F55" s="15">
+        <v>11</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L55" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M55" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N55" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O55" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q55" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R55" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S55" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T55" s="15">
+        <v>50</v>
+      </c>
+      <c r="U55" s="15">
+        <v>999</v>
+      </c>
+      <c r="V55" s="15">
+        <v>0</v>
+      </c>
+      <c r="W55" s="15"/>
+    </row>
+    <row r="56" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" s="14">
+        <v>0</v>
+      </c>
+      <c r="F56" s="15">
+        <v>12</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J56" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L56" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M56" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N56" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O56" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q56" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R56" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S56" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T56" s="15">
+        <v>0</v>
+      </c>
+      <c r="U56" s="15">
+        <v>999</v>
+      </c>
+      <c r="V56" s="15">
+        <v>0</v>
+      </c>
+      <c r="W56" s="15"/>
+    </row>
+    <row r="57" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" s="14">
+        <v>0</v>
+      </c>
+      <c r="F57" s="15">
+        <v>13</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M57" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N57" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O57" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q57" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R57" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S57" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T57" s="15">
+        <v>75</v>
+      </c>
+      <c r="U57" s="15">
+        <v>999</v>
+      </c>
+      <c r="V57" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="W57" s="15"/>
+    </row>
+    <row r="58" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" s="14">
+        <v>0</v>
+      </c>
+      <c r="F58" s="15">
+        <v>13</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J58" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L58" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M58" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N58" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O58" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q58" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R58" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S58" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T58" s="15">
+        <v>25</v>
+      </c>
+      <c r="U58" s="15">
+        <v>999</v>
+      </c>
+      <c r="V58" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="W58" s="15"/>
+    </row>
+    <row r="59" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59" s="14">
+        <v>0</v>
+      </c>
+      <c r="F59" s="15">
+        <v>18</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J59" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K59" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L59" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M59" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N59" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O59" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q59" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R59" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S59" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T59" s="15">
+        <v>0</v>
+      </c>
+      <c r="U59" s="15">
+        <v>999</v>
+      </c>
+      <c r="V59" s="15">
+        <v>0</v>
+      </c>
+      <c r="W59" s="15"/>
+    </row>
+    <row r="60" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" s="14">
+        <v>0</v>
+      </c>
+      <c r="F60" s="15">
+        <v>2</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K60" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L60" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M60" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N60" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O60" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q60" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R60" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S60" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T60" s="15">
+        <v>0</v>
+      </c>
+      <c r="U60" s="15">
+        <v>999</v>
+      </c>
+      <c r="V60" s="15">
+        <v>0</v>
+      </c>
+      <c r="W60" s="15"/>
+    </row>
+    <row r="61" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" s="14">
+        <v>0</v>
+      </c>
+      <c r="F61" s="15">
+        <v>3</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J61" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K61" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L61" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M61" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N61" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O61" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q61" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R61" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S61" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T61" s="15">
+        <v>0</v>
+      </c>
+      <c r="U61" s="15">
+        <v>999</v>
+      </c>
+      <c r="V61" s="15">
+        <v>0</v>
+      </c>
+      <c r="W61" s="15"/>
+    </row>
+    <row r="62" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E62" s="14">
+        <v>0</v>
+      </c>
+      <c r="F62" s="15">
+        <v>4</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J62" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K62" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L62" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M62" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N62" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O62" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q62" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R62" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S62" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T62" s="15">
+        <v>0</v>
+      </c>
+      <c r="U62" s="15">
+        <v>999</v>
+      </c>
+      <c r="V62" s="15">
+        <v>0</v>
+      </c>
+      <c r="W62" s="15"/>
+    </row>
+    <row r="63" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" s="14">
+        <v>0</v>
+      </c>
+      <c r="F63" s="15">
+        <v>6</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J63" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K63" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L63" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M63" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N63" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O63" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q63" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R63" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S63" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T63" s="15">
+        <v>0</v>
+      </c>
+      <c r="U63" s="15">
+        <v>999</v>
+      </c>
+      <c r="V63" s="15">
+        <v>0</v>
+      </c>
+      <c r="W63" s="15"/>
+    </row>
+    <row r="64" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" s="14">
+        <v>0</v>
+      </c>
+      <c r="F64" s="15">
+        <v>7</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J64" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K64" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L64" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M64" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N64" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O64" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q64" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R64" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S64" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T64" s="15">
+        <v>90</v>
+      </c>
+      <c r="U64" s="15">
+        <v>999</v>
+      </c>
+      <c r="V64" s="15">
+        <v>6</v>
+      </c>
+      <c r="W64" s="15"/>
+    </row>
+    <row r="65" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" s="14">
+        <v>0</v>
+      </c>
+      <c r="F65" s="15">
+        <v>9</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J65" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K65" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L65" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M65" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N65" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O65" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P65" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q65" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R65" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S65" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T65" s="15">
+        <v>0</v>
+      </c>
+      <c r="U65" s="15">
+        <v>999</v>
+      </c>
+      <c r="V65" s="15">
+        <v>0</v>
+      </c>
+      <c r="W65" s="15"/>
+    </row>
+    <row r="66" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" s="14">
+        <v>0</v>
+      </c>
+      <c r="F66" s="15">
+        <v>11</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J66" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K66" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L66" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M66" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N66" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O66" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P66" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q66" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R66" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S66" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T66" s="15">
+        <v>50</v>
+      </c>
+      <c r="U66" s="15">
+        <v>999</v>
+      </c>
+      <c r="V66" s="15">
+        <v>0</v>
+      </c>
+      <c r="W66" s="15"/>
+    </row>
+    <row r="67" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" s="14">
+        <v>0</v>
+      </c>
+      <c r="F67" s="15">
+        <v>12</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J67" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K67" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L67" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M67" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N67" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O67" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q67" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R67" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S67" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T67" s="15">
+        <v>0</v>
+      </c>
+      <c r="U67" s="15">
+        <v>999</v>
+      </c>
+      <c r="V67" s="15">
+        <v>0</v>
+      </c>
+      <c r="W67" s="15"/>
+    </row>
+    <row r="68" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E68" s="14">
+        <v>0</v>
+      </c>
+      <c r="F68" s="15">
+        <v>13</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J68" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K68" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L68" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M68" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N68" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O68" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q68" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R68" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S68" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T68" s="15">
+        <v>75</v>
+      </c>
+      <c r="U68" s="15">
+        <v>999</v>
+      </c>
+      <c r="V68" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="W68" s="15"/>
+    </row>
+    <row r="69" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E69" s="14">
+        <v>0</v>
+      </c>
+      <c r="F69" s="15">
+        <v>13</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J69" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K69" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L69" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M69" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N69" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O69" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q69" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R69" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S69" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T69" s="15">
+        <v>25</v>
+      </c>
+      <c r="U69" s="15">
+        <v>999</v>
+      </c>
+      <c r="V69" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="W69" s="15"/>
+    </row>
+    <row r="70" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" s="14">
+        <v>0</v>
+      </c>
+      <c r="F70" s="15">
+        <v>18</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J70" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K70" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L70" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M70" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N70" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O70" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q70" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R70" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S70" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T70" s="15">
+        <v>0</v>
+      </c>
+      <c r="U70" s="15">
+        <v>999</v>
+      </c>
+      <c r="V70" s="15">
+        <v>0</v>
+      </c>
+      <c r="W70" s="15"/>
+    </row>
+    <row r="71" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E71" s="14">
+        <v>0</v>
+      </c>
+      <c r="F71" s="15">
+        <v>2</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I71" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J71" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K71" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L71" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M71" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N71" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O71" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P71" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q71" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R71" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S71" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T71" s="15">
+        <v>0</v>
+      </c>
+      <c r="U71" s="15">
+        <v>999</v>
+      </c>
+      <c r="V71" s="15">
+        <v>0</v>
+      </c>
+      <c r="W71" s="15"/>
+    </row>
+    <row r="72" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72" s="14">
+        <v>0</v>
+      </c>
+      <c r="F72" s="15">
+        <v>3</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I72" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J72" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K72" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L72" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M72" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N72" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O72" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P72" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q72" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R72" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S72" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T72" s="15">
+        <v>0</v>
+      </c>
+      <c r="U72" s="15">
+        <v>999</v>
+      </c>
+      <c r="V72" s="15">
+        <v>0</v>
+      </c>
+      <c r="W72" s="15"/>
+    </row>
+    <row r="73" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E73" s="14">
+        <v>0</v>
+      </c>
+      <c r="F73" s="15">
+        <v>4</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I73" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J73" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K73" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L73" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M73" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N73" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O73" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q73" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R73" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S73" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T73" s="15">
+        <v>0</v>
+      </c>
+      <c r="U73" s="15">
+        <v>999</v>
+      </c>
+      <c r="V73" s="15">
+        <v>0</v>
+      </c>
+      <c r="W73" s="15"/>
+    </row>
+    <row r="74" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" s="14">
+        <v>0</v>
+      </c>
+      <c r="F74" s="15">
+        <v>6</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I74" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J74" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K74" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L74" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M74" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N74" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O74" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P74" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q74" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R74" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S74" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T74" s="15">
+        <v>0</v>
+      </c>
+      <c r="U74" s="15">
+        <v>999</v>
+      </c>
+      <c r="V74" s="15">
+        <v>0</v>
+      </c>
+      <c r="W74" s="15"/>
+    </row>
+    <row r="75" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E75" s="14">
+        <v>0</v>
+      </c>
+      <c r="F75" s="15">
+        <v>7</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I75" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J75" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K75" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L75" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M75" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N75" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O75" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P75" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q75" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R75" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S75" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T75" s="15">
+        <v>90</v>
+      </c>
+      <c r="U75" s="15">
+        <v>999</v>
+      </c>
+      <c r="V75" s="15">
+        <v>6</v>
+      </c>
+      <c r="W75" s="15"/>
+    </row>
+    <row r="76" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E76" s="14">
+        <v>0</v>
+      </c>
+      <c r="F76" s="15">
+        <v>9</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I76" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J76" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K76" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L76" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M76" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N76" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O76" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q76" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R76" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S76" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T76" s="15">
+        <v>0</v>
+      </c>
+      <c r="U76" s="15">
+        <v>999</v>
+      </c>
+      <c r="V76" s="15">
+        <v>0</v>
+      </c>
+      <c r="W76" s="15"/>
+    </row>
+    <row r="77" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E77" s="14">
+        <v>0</v>
+      </c>
+      <c r="F77" s="15">
+        <v>11</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I77" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J77" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K77" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L77" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M77" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N77" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O77" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P77" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q77" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R77" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S77" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T77" s="15">
+        <v>50</v>
+      </c>
+      <c r="U77" s="15">
+        <v>999</v>
+      </c>
+      <c r="V77" s="15">
+        <v>0</v>
+      </c>
+      <c r="W77" s="15"/>
+    </row>
+    <row r="78" spans="1:23" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E78" s="14">
+        <v>0</v>
+      </c>
+      <c r="F78" s="15">
+        <v>12</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I78" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J78" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K78" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L78" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M78" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N78" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O78" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P78" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q78" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R78" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S78" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T78" s="15">
+        <v>0</v>
+      </c>
+      <c r="U78" s="15">
+        <v>999</v>
+      </c>
+      <c r="V78" s="15">
+        <v>0</v>
+      </c>
+      <c r="W78" s="15"/>
+    </row>
+    <row r="79" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E79" s="14">
+        <v>0</v>
+      </c>
+      <c r="F79" s="15">
+        <v>13</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I79" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J79" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K79" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L79" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M79" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N79" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O79" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P79" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q79" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R79" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S79" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T79" s="15">
+        <v>75</v>
+      </c>
+      <c r="U79" s="15">
+        <v>999</v>
+      </c>
+      <c r="V79" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="W79" s="15"/>
+    </row>
+    <row r="80" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E80" s="14">
+        <v>0</v>
+      </c>
+      <c r="F80" s="15">
+        <v>13</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I80" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J80" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K80" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L80" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M80" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N80" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O80" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P80" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q80" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R80" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S80" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T80" s="15">
+        <v>25</v>
+      </c>
+      <c r="U80" s="15">
+        <v>999</v>
+      </c>
+      <c r="V80" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="W80" s="15"/>
+    </row>
+    <row r="81" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E81" s="14">
+        <v>0</v>
+      </c>
+      <c r="F81" s="15">
+        <v>18</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I81" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J81" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K81" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L81" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M81" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N81" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O81" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P81" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q81" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="R81" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S81" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T81" s="15">
+        <v>0</v>
+      </c>
+      <c r="U81" s="15">
+        <v>999</v>
+      </c>
+      <c r="V81" s="15">
+        <v>0</v>
+      </c>
+      <c r="W81" s="15"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>